--- a/historicocomissoes/202404/xpcs/xpcs.xlsx
+++ b/historicocomissoes/202404/xpcs/xpcs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f97ab02c6af1f0/Miha/Comissões/PJ2/03.2024 - XP P2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f97ab02c6af1f0/Miha/Comissões/PJ2/04.2024 - XP P2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53EBD7AB-0FE0-4EB0-BD6E-737736D6538F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3361B10-6435-413F-8326-2802727FE543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36420" yWindow="5325" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Classificação</t>
   </si>
@@ -67,24 +67,33 @@
     <t>Previdência</t>
   </si>
   <si>
+    <t>Adam Icatu Prev FIC FIM</t>
+  </si>
+  <si>
+    <t>25681955000182</t>
+  </si>
+  <si>
+    <t>Icatu</t>
+  </si>
+  <si>
+    <t>20/05/2021</t>
+  </si>
+  <si>
+    <t>A67370</t>
+  </si>
+  <si>
+    <t>01/04/2024</t>
+  </si>
+  <si>
     <t>Schroder Icatu Prev Low Vol FIM</t>
   </si>
   <si>
     <t>31248460000167</t>
   </si>
   <si>
-    <t>Icatu</t>
-  </si>
-  <si>
     <t>31/01/2022</t>
   </si>
   <si>
-    <t>A67370</t>
-  </si>
-  <si>
-    <t>01/03/2024</t>
-  </si>
-  <si>
     <t>Icatu Seg Kadima FIM CP Prev</t>
   </si>
   <si>
@@ -97,13 +106,19 @@
     <t>A70995</t>
   </si>
   <si>
-    <t>Adam Icatu Prev FIC FIM</t>
-  </si>
-  <si>
-    <t>25681955000182</t>
-  </si>
-  <si>
-    <t>20/05/2021</t>
+    <t>Ajustes</t>
+  </si>
+  <si>
+    <t>Campanhas</t>
+  </si>
+  <si>
+    <t>Campanha B2B</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>A45879</t>
   </si>
 </sst>
 </file>
@@ -473,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -554,16 +569,16 @@
         <v>20</v>
       </c>
       <c r="J2" s="1">
-        <v>43.11</v>
+        <v>175.28</v>
       </c>
       <c r="K2" s="1">
-        <v>40.67</v>
+        <v>165.38</v>
       </c>
       <c r="L2" s="1">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M2" s="1">
-        <v>12.2</v>
+        <v>33.08</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -586,25 +601,25 @@
         <v>23</v>
       </c>
       <c r="G3">
-        <v>6581905</v>
+        <v>5072740</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1">
-        <v>213.58</v>
+        <v>43.4</v>
       </c>
       <c r="K3" s="1">
-        <v>201.52</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="L3" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="M3" s="1">
-        <v>40.299999999999997</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
@@ -615,37 +630,75 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
       </c>
       <c r="F4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>6581905</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
-      </c>
-      <c r="G4">
-        <v>5072740</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1">
-        <v>172.34</v>
+        <v>30.56</v>
       </c>
       <c r="K4" s="1">
-        <v>162.6</v>
+        <v>28.84</v>
       </c>
       <c r="L4" s="1">
         <v>0.2</v>
       </c>
       <c r="M4" s="1">
-        <v>32.520000000000003</v>
+        <v>5.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1007.32</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1007.32</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1007.32</v>
       </c>
     </row>
   </sheetData>
